--- a/jpcore-r4/feature/swg5-removed_orderinrp/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg5-removed_orderinrp/CodeSystem-jp-jfagy-non-food-non-medication-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:54:06+00:00</t>
+    <t>2022-08-09T03:20:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
